--- a/a.xlsx
+++ b/a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="365">
   <si>
     <t>@_fa</t>
   </si>
@@ -88,6 +88,9 @@
     <t>openaccessFlag</t>
   </si>
   <si>
+    <t>article-number</t>
+  </si>
+  <si>
     <t>pubmed-id</t>
   </si>
   <si>
@@ -97,634 +100,865 @@
     <t>true</t>
   </si>
   <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85081597572', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85081597572?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85081597572&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85081597572&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85054981027', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85054981027?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85054981027&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85054981027&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85010928575', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85010928575?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85010928575&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85010928575&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85027246280', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85027246280?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85027246280&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85027246280&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85042867114', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85042867114?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85042867114&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85042867114&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/84958554557', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/84958554557?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=84958554557&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=84958554557&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S0925400516301642'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/84937427362', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/84937427362?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=84937427362&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=84937427362&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/84907310915', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/84907310915?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=84907310915&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=84907310915&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S1350449514001492'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/84884729289', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/84884729289?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=84884729289&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=84884729289&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S0304423813004226'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/84879651702', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/84879651702?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=84879651702&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=84879651702&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/83655190385', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/83655190385?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=83655190385&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=83655190385&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/83655172472', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/83655172472?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=83655172472&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=83655172472&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/80054124371', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/80054124371?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=80054124371&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=80054124371&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S0304423811004201'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/80052310291', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/80052310291?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=80052310291&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=80052310291&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/77954384999', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/77954384999?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=77954384999&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=77954384999&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S0304423810002244'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/84867262271', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/84867262271?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=84867262271&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=84867262271&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/67349209506', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/67349209506?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=67349209506&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=67349209506&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S0944711308002249'}</t>
-  </si>
-  <si>
-    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/79959342043', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/79959342043?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=79959342043&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=79959342043&amp;origin=inward'}</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/85081597572</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/85054981027</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/85010928575</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/85027246280</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/85042867114</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/84958554557</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/84937427362</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/84907310915</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/84884729289</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/84879651702</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/83655190385</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/83655172472</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/80054124371</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/80052310291</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/77954384999</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/84867262271</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/67349209506</t>
-  </si>
-  <si>
-    <t>https://api.elsevier.com/content/abstract/scopus_id/79959342043</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:85081597572</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:85054981027</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:85010928575</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:85027246280</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:85042867114</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:84958554557</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:84937427362</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:84907310915</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:84884729289</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:84879651702</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:83655190385</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:83655172472</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:80054124371</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:80052310291</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:77954384999</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:84867262271</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:67349209506</t>
-  </si>
-  <si>
-    <t>SCOPUS_ID:79959342043</t>
-  </si>
-  <si>
-    <t>2-s2.0-85081597572</t>
-  </si>
-  <si>
-    <t>2-s2.0-85054981027</t>
-  </si>
-  <si>
-    <t>2-s2.0-85010928575</t>
-  </si>
-  <si>
-    <t>2-s2.0-85027246280</t>
-  </si>
-  <si>
-    <t>2-s2.0-85042867114</t>
-  </si>
-  <si>
-    <t>2-s2.0-84958554557</t>
-  </si>
-  <si>
-    <t>2-s2.0-84937427362</t>
-  </si>
-  <si>
-    <t>2-s2.0-84907310915</t>
-  </si>
-  <si>
-    <t>2-s2.0-84884729289</t>
-  </si>
-  <si>
-    <t>2-s2.0-84879651702</t>
-  </si>
-  <si>
-    <t>2-s2.0-83655190385</t>
-  </si>
-  <si>
-    <t>2-s2.0-83655172472</t>
-  </si>
-  <si>
-    <t>2-s2.0-80054124371</t>
-  </si>
-  <si>
-    <t>2-s2.0-80052310291</t>
-  </si>
-  <si>
-    <t>2-s2.0-77954384999</t>
-  </si>
-  <si>
-    <t>2-s2.0-84867262271</t>
-  </si>
-  <si>
-    <t>2-s2.0-67349209506</t>
-  </si>
-  <si>
-    <t>2-s2.0-79959342043</t>
-  </si>
-  <si>
-    <t>Phytohormone profiles of ‘Seolhyang’ and ‘Maehyang’ strawberry fruits during ripening</t>
-  </si>
-  <si>
-    <t>Development of an SNP set for marker-assisted breeding based on the genotyping-by-sequencing of elite inbred lines in watermelon</t>
-  </si>
-  <si>
-    <t>Non-destructive evaluation of bacteria-infected watermelon seeds using visible/near-infrared hyperspectral imaging</t>
-  </si>
-  <si>
-    <t>Characterization of the Lsi1 homologs in Cucurbita moschata and C. ficifolia for breeding of stock cultivars used for bloomless cucumber production</t>
-  </si>
-  <si>
-    <t>Regional differences in onion bulb quality and nutrient content, and the correlation between bulb characteristics and storage loss</t>
-  </si>
-  <si>
-    <t>Near-infrared hyperspectral imaging system coupled with multivariate methods to predict viability and vigor in muskmelon seeds</t>
-  </si>
-  <si>
-    <t>Sequence-characterized amplified polymorphism markers for selecting rind stripe pattern in watermelon (Citrullus lanatus L.)</t>
-  </si>
-  <si>
-    <t>Viability estimation of pepper seeds using time-resolved photothermal signal characterization</t>
-  </si>
-  <si>
-    <t>Development of the gene-based SCARs for the Ph-3 locus, which confers late blight resistance in tomato</t>
-  </si>
-  <si>
-    <t>Single-crystal structure of |Li&lt;inf&gt;50&lt;/inf&gt;Na&lt;inf&gt;25&lt;/inf&gt;|[Si &lt;inf&gt;117&lt;/inf&gt;Al&lt;inf&gt;75&lt;/inf&gt;O&lt;inf&gt;384&lt;/inf&gt;]-FAU</t>
-  </si>
-  <si>
-    <t>Genetic diversity in watermelon cultivars and related species based on AFLPs and EST-SSRs</t>
-  </si>
-  <si>
-    <t>Microarray analysis of the transcriptome for bacterial wilt resistance in pepper (Capsicum annuum L.)</t>
-  </si>
-  <si>
-    <t>Functional characterization of watermelon (Citrullus lanatus L.) EST-SSR by gel electrophoresis and high resolution melting analysis</t>
-  </si>
-  <si>
-    <t>Antioxidative effects of peanut sprout extracts</t>
-  </si>
-  <si>
-    <t>Rose (Rosa hybrida L.) EST-derived microsatellite markers and their transferability to strawberry (Fragaria spp.)</t>
-  </si>
-  <si>
-    <t>Resveratrol Induces Apoptosis in Primary Human Prostate Cancer Cells</t>
-  </si>
-  <si>
-    <t>Pinoresinol-4,4′-di-O-β-d-glucoside from Valeriana officinalis root stimulates calcium mobilization and chemotactic migration of mouse embryo fibroblasts</t>
-  </si>
-  <si>
-    <t>Storability improvement of 'Fuyu' persimmon fruit by the combination of hot-water dipping and MAP</t>
-  </si>
-  <si>
-    <t>Lee G.B.</t>
-  </si>
-  <si>
-    <t>Lee J.</t>
-  </si>
-  <si>
-    <t>Lee H.</t>
-  </si>
-  <si>
-    <t>Jung J.</t>
-  </si>
-  <si>
-    <t>Kandpal L.</t>
-  </si>
-  <si>
-    <t>Kim H.</t>
-  </si>
-  <si>
-    <t>Kim G.</t>
-  </si>
-  <si>
-    <t>Park Y.</t>
-  </si>
-  <si>
-    <t>Hwang J.</t>
-  </si>
-  <si>
-    <t>Hwang J.H.</t>
-  </si>
-  <si>
-    <t>Kang H.</t>
-  </si>
-  <si>
-    <t>Do K.H.</t>
-  </si>
-  <si>
-    <t>Lee Y.J.</t>
-  </si>
-  <si>
-    <t>Horticulture Environment and Biotechnology</t>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85078859224', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85078859224?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85078859224&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85078859224&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85079150867', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85079150867?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85079150867&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85079150867&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85075254855', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85075254855?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85075254855&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85075254855&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85072745859', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85072745859?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85072745859&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85072745859&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85071743488', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85071743488?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85071743488&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85071743488&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85060980704', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85060980704?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85060980704&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85060980704&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85048901026', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85048901026?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85048901026&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85048901026&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S1874391918301751'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85070876344', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85070876344?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85070876344&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85070876344&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85056324829', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85056324829?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85056324829&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85056324829&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S1226845318301611'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85051390292', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85051390292?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85051390292&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85051390292&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S2352340918308424'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85049477349', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85049477349?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85049477349&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85049477349&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S2352340918308898'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85049450960', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85049450960?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85049450960&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85049450960&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S0981942818303024'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85051135677', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85051135677?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85051135677&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85051135677&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85045481206', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85045481206?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85045481206&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85045481206&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85044572642', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85044572642?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85044572642&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85044572642&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85031395619', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85031395619?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85031395619&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85031395619&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85043373467', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85043373467?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85043373467&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85043373467&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85042141789', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85042141789?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85042141789&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85042141789&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85041697029', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85041697029?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85041697029&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85041697029&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85031763929', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85031763929?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85031763929&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85031763929&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S2352340917304870'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85040832451', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85040832451?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85040832451&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85040832451&amp;origin=inward'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85019687518', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85019687518?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85019687518&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85019687518&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S1874391917301835'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85021396942', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85021396942?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85021396942&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85021396942&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S1874391917302324'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85013799384', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85013799384?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85013799384&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85013799384&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S187439191730060X'}</t>
+  </si>
+  <si>
+    <t>{'self': 'https://api.elsevier.com/content/abstract/scopus_id/85017127052', 'author-affiliation': 'https://api.elsevier.com/content/abstract/scopus_id/85017127052?field=author,affiliation', 'scopus': 'https://www.scopus.com/inward/record.uri?partnerID=HzOxMe3b&amp;scp=85017127052&amp;origin=inward', 'scopus-citedby': 'https://www.scopus.com/inward/citedby.uri?partnerID=HzOxMe3b&amp;scp=85017127052&amp;origin=inward', 'full-text': 'https://api.elsevier.com/content/article/eid/1-s2.0-S1874391917301045'}</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85078859224</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85079150867</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85075254855</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85072745859</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85071743488</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85060980704</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85048901026</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85070876344</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85056324829</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85051390292</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85049477349</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85049450960</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85051135677</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85045481206</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85044572642</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85031395619</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85043373467</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85042141789</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85041697029</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85031763929</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85040832451</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85019687518</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85021396942</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85013799384</t>
+  </si>
+  <si>
+    <t>https://api.elsevier.com/content/abstract/scopus_id/85017127052</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85078859224</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85079150867</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85075254855</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85072745859</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85071743488</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85060980704</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85048901026</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85070876344</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85056324829</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85051390292</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85049477349</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85049450960</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85051135677</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85045481206</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85044572642</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85031395619</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85043373467</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85042141789</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85041697029</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85031763929</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85040832451</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85019687518</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85021396942</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85013799384</t>
+  </si>
+  <si>
+    <t>SCOPUS_ID:85017127052</t>
+  </si>
+  <si>
+    <t>2-s2.0-85078859224</t>
+  </si>
+  <si>
+    <t>2-s2.0-85079150867</t>
+  </si>
+  <si>
+    <t>2-s2.0-85075254855</t>
+  </si>
+  <si>
+    <t>2-s2.0-85072745859</t>
+  </si>
+  <si>
+    <t>2-s2.0-85071743488</t>
+  </si>
+  <si>
+    <t>2-s2.0-85060980704</t>
+  </si>
+  <si>
+    <t>2-s2.0-85048901026</t>
+  </si>
+  <si>
+    <t>2-s2.0-85070876344</t>
+  </si>
+  <si>
+    <t>2-s2.0-85056324829</t>
+  </si>
+  <si>
+    <t>2-s2.0-85051390292</t>
+  </si>
+  <si>
+    <t>2-s2.0-85049477349</t>
+  </si>
+  <si>
+    <t>2-s2.0-85049450960</t>
+  </si>
+  <si>
+    <t>2-s2.0-85051135677</t>
+  </si>
+  <si>
+    <t>2-s2.0-85045481206</t>
+  </si>
+  <si>
+    <t>2-s2.0-85044572642</t>
+  </si>
+  <si>
+    <t>2-s2.0-85031395619</t>
+  </si>
+  <si>
+    <t>2-s2.0-85043373467</t>
+  </si>
+  <si>
+    <t>2-s2.0-85042141789</t>
+  </si>
+  <si>
+    <t>2-s2.0-85041697029</t>
+  </si>
+  <si>
+    <t>2-s2.0-85031763929</t>
+  </si>
+  <si>
+    <t>2-s2.0-85040832451</t>
+  </si>
+  <si>
+    <t>2-s2.0-85019687518</t>
+  </si>
+  <si>
+    <t>2-s2.0-85021396942</t>
+  </si>
+  <si>
+    <t>2-s2.0-85013799384</t>
+  </si>
+  <si>
+    <t>2-s2.0-85017127052</t>
+  </si>
+  <si>
+    <t>Comparative proteomic analysis of host responses to Plasmodiophora brassicae infection in susceptible and resistant Brassica oleracea</t>
+  </si>
+  <si>
+    <t>Metabolic profiling-based evaluation of the fermentative behavior of Aspergillus oryzae and Bacillus subtilis for soybean residues treated at different temperatures</t>
+  </si>
+  <si>
+    <t>Proteomics of Rice—Magnaporthe oryzae Interaction: What Have We Learned So Far?</t>
+  </si>
+  <si>
+    <t>Pi5 and Pii Paired NLRs Are Functionally Exchangeable and Confer Similar Disease Resistance Specificity</t>
+  </si>
+  <si>
+    <t>Identification of Msp1-induced signaling components in rice leaves by integrated proteomic and phosphoproteomic analysis</t>
+  </si>
+  <si>
+    <t>Label-free quantitative proteomic analysis determines changes in amino acid and carbohydrate metabolism in three cultivars of Jerusalem artichoke tubers</t>
+  </si>
+  <si>
+    <t>A proteomic insight into the MSP1 and flg22 induced signaling in Oryza sativa leaves</t>
+  </si>
+  <si>
+    <t>Concepts and strategies of soybean seed proteomics using the shotgun proteomics approach</t>
+  </si>
+  <si>
+    <t>Label-free quantitative proteomic analysis of Panax ginseng leaves upon exposure to heat stress</t>
+  </si>
+  <si>
+    <t>Label-free quantitative proteome data associated with MSP1 and flg22 induced signaling in rice leaves</t>
+  </si>
+  <si>
+    <t>Phosphoproteome data from abscisic acid and ethylene treated Glycine max leaves</t>
+  </si>
+  <si>
+    <t>Comparative phosphoproteome analysis upon ethylene and abscisic acid treatment in Glycine max leaves</t>
+  </si>
+  <si>
+    <t>Transcriptomic analysis of Oryza sativa leaves reveals key changes in response to Magnaporthe oryzae MSP1</t>
+  </si>
+  <si>
+    <t>An insight into the tomato spotted wilt virus (TSWV), tomato and thrips interaction</t>
+  </si>
+  <si>
+    <t>Progress toward rice seed OMICS in low-level gamma radiation environment in Iitate Village, Fukushima</t>
+  </si>
+  <si>
+    <t>Physiological and proteomic analysis of plant growth enhancement by the rhizobacteria Bacillus sp. JS</t>
+  </si>
+  <si>
+    <t>A Multi-Omics Analysis of Glycine max Leaves Reveals Alteration in Flavonoid and Isoflavonoid Metabolism Upon Ethylene and Abscisic Acid Treatment</t>
+  </si>
+  <si>
+    <t>Transcriptome analysis of ABA/JA-dual responsive genes in rice shoot and root</t>
+  </si>
+  <si>
+    <t>Optimization of in vitro lily culture system with different treatments of taurine</t>
+  </si>
+  <si>
+    <t>Gel-based and gel-free proteome data associated with controlled deterioration treatment of Glycine max seeds</t>
+  </si>
+  <si>
+    <t>Evaluation of bioactive compounds in strawberry fruits by a targeted metabolomic approach</t>
+  </si>
+  <si>
+    <t>Proteomics survey of Solanaceae family: Current status and challenges ahead</t>
+  </si>
+  <si>
+    <t>In-depth proteomic analysis of Glycine max seeds during controlled deterioration treatment reveals a shift in seed metabolism</t>
+  </si>
+  <si>
+    <t>Label-free quantitative secretome analysis of Xanthomonas oryzae pv. oryzae highlights the involvement of a novel cysteine protease in its pathogenicity</t>
+  </si>
+  <si>
+    <t>Common bean proteomics: Present status and future strategies</t>
+  </si>
+  <si>
+    <t>Moon J.Y.</t>
+  </si>
+  <si>
+    <t>Hyeon H.</t>
+  </si>
+  <si>
+    <t>Meng Q.</t>
+  </si>
+  <si>
+    <t>Vo K.T.X.</t>
+  </si>
+  <si>
+    <t>Gupta R.</t>
+  </si>
+  <si>
+    <t>Min C.W.</t>
+  </si>
+  <si>
+    <t>Kim S.W.</t>
+  </si>
+  <si>
+    <t>Rakwal R.</t>
+  </si>
+  <si>
+    <t>Kim J.</t>
+  </si>
+  <si>
+    <t>Lee S.H.</t>
+  </si>
+  <si>
+    <t>Ko M.J.</t>
+  </si>
+  <si>
+    <t>Ghatak A.</t>
+  </si>
+  <si>
+    <t>Wang Y.</t>
+  </si>
+  <si>
+    <t>Zargar S.</t>
+  </si>
+  <si>
+    <t>Plant Biotechnology Reports</t>
+  </si>
+  <si>
+    <t>Foods</t>
+  </si>
+  <si>
+    <t>Frontiers in Plant Science</t>
+  </si>
+  <si>
+    <t>Molecules and cells</t>
+  </si>
+  <si>
+    <t>International Journal of Molecular Sciences</t>
+  </si>
+  <si>
+    <t>Journal of Proteomics</t>
+  </si>
+  <si>
+    <t>Expert Review of Proteomics</t>
+  </si>
+  <si>
+    <t>Journal of Ginseng Research</t>
+  </si>
+  <si>
+    <t>Data in Brief</t>
+  </si>
+  <si>
+    <t>Plant Physiology and Biochemistry</t>
+  </si>
+  <si>
+    <t>Plant Pathology Journal</t>
+  </si>
+  <si>
+    <t>Journal of Heredity</t>
+  </si>
+  <si>
+    <t>Genes and Genomics</t>
+  </si>
+  <si>
+    <t>Proteomics</t>
+  </si>
+  <si>
+    <t>Current Genomics</t>
   </si>
   <si>
     <t>Journal of Plant Biotechnology</t>
   </si>
   <si>
-    <t>Journal of the Science of Food and Agriculture</t>
-  </si>
-  <si>
     <t>Korean Journal of Horticultural Science and Technology</t>
   </si>
   <si>
-    <t>Horticultural Science and Technology</t>
-  </si>
-  <si>
-    <t>Sensors and Actuators, B: Chemical</t>
-  </si>
-  <si>
-    <t>Infrared Physics and Technology</t>
-  </si>
-  <si>
-    <t>Scientia Horticulturae</t>
-  </si>
-  <si>
-    <t>Journal of the Korean Chemical Society</t>
-  </si>
-  <si>
-    <t>Notulae Botanicae Horti Agrobotanici Cluj-Napoca</t>
-  </si>
-  <si>
-    <t>Journal of the Korean Society of Food Science and Nutrition</t>
-  </si>
-  <si>
-    <t>Phytomedicine</t>
-  </si>
-  <si>
-    <t>22113452</t>
+    <t>18635466</t>
+  </si>
+  <si>
+    <t>16616596</t>
+  </si>
+  <si>
+    <t>18743919</t>
+  </si>
+  <si>
+    <t>14789450</t>
+  </si>
+  <si>
+    <t>12268453</t>
+  </si>
+  <si>
+    <t>09819428</t>
+  </si>
+  <si>
+    <t>15982254</t>
+  </si>
+  <si>
+    <t>00221503</t>
+  </si>
+  <si>
+    <t>19769571</t>
+  </si>
+  <si>
+    <t>16159853</t>
+  </si>
+  <si>
+    <t>13892029</t>
   </si>
   <si>
     <t>12292818</t>
   </si>
   <si>
-    <t>00225142</t>
-  </si>
-  <si>
     <t>12268763</t>
   </si>
   <si>
-    <t>09254005</t>
-  </si>
-  <si>
-    <t>13504495</t>
-  </si>
-  <si>
-    <t>03044238</t>
-  </si>
-  <si>
-    <t>10172548</t>
-  </si>
-  <si>
-    <t>0255965X</t>
-  </si>
-  <si>
-    <t>12263311</t>
-  </si>
-  <si>
-    <t>09447113</t>
-  </si>
-  <si>
-    <t>22113460</t>
-  </si>
-  <si>
-    <t>10970010</t>
-  </si>
-  <si>
-    <t>24658588</t>
-  </si>
-  <si>
-    <t>18424309</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>97</t>
+    <t>18635474</t>
+  </si>
+  <si>
+    <t>23048158</t>
+  </si>
+  <si>
+    <t>1664462X</t>
+  </si>
+  <si>
+    <t>02191032</t>
+  </si>
+  <si>
+    <t>14220067</t>
+  </si>
+  <si>
+    <t>18767737</t>
+  </si>
+  <si>
+    <t>17448387</t>
+  </si>
+  <si>
+    <t>23523409</t>
+  </si>
+  <si>
+    <t>20939280</t>
+  </si>
+  <si>
+    <t>14657333</t>
+  </si>
+  <si>
+    <t>20929293</t>
+  </si>
+  <si>
+    <t>16159861</t>
+  </si>
+  <si>
+    <t>18755488</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>169</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>229-239</t>
-  </si>
-  <si>
-    <t>242-249</t>
-  </si>
-  <si>
-    <t>1084-1092</t>
-  </si>
-  <si>
-    <t>333-343</t>
-  </si>
-  <si>
-    <t>807-817</t>
-  </si>
-  <si>
-    <t>534-544</t>
-  </si>
-  <si>
-    <t>341-349</t>
-  </si>
-  <si>
-    <t>214-221</t>
-  </si>
-  <si>
-    <t>9-16</t>
-  </si>
-  <si>
-    <t>12-19</t>
-  </si>
-  <si>
-    <t>285-292</t>
-  </si>
-  <si>
-    <t>49-57</t>
-  </si>
-  <si>
-    <t>715-724</t>
-  </si>
-  <si>
-    <t>941-946</t>
-  </si>
-  <si>
-    <t>733-739</t>
-  </si>
-  <si>
-    <t>1119-1125</t>
-  </si>
-  <si>
-    <t>530-537</t>
-  </si>
-  <si>
-    <t>34-41</t>
-  </si>
-  <si>
-    <t>1 April 2020</t>
-  </si>
-  <si>
-    <t>30 September 2018</t>
-  </si>
-  <si>
-    <t>15 March 2017</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t>28 June 2016</t>
-  </si>
-  <si>
-    <t>23 June 2015</t>
-  </si>
-  <si>
-    <t>19 August 2014</t>
-  </si>
-  <si>
-    <t>17 December 2013</t>
-  </si>
-  <si>
-    <t>20 February 2013</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>31 October 2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>July 2010</t>
-  </si>
-  <si>
-    <t>June 2009</t>
-  </si>
-  <si>
-    <t>March 2008</t>
-  </si>
-  <si>
-    <t>10.1007/s13580-019-00213-w</t>
-  </si>
-  <si>
-    <t>10.5010/JPB.2018.45.3.242</t>
-  </si>
-  <si>
-    <t>10.1002/jsfa.7832</t>
-  </si>
-  <si>
-    <t>10.12972/kjhst.20170036</t>
-  </si>
-  <si>
-    <t>10.12972/kjhst.20160085</t>
-  </si>
-  <si>
-    <t>10.1016/j.snb.2016.02.015</t>
-  </si>
-  <si>
-    <t>10.1007/s13580-015-0017-1</t>
-  </si>
-  <si>
-    <t>10.1016/j.infrared.2014.07.025</t>
-  </si>
-  <si>
-    <t>10.1016/j.scienta.2013.08.013</t>
-  </si>
-  <si>
-    <t>10.5012/jkcs.2013.57.1.12</t>
-  </si>
-  <si>
-    <t>10.1016/j.scienta.2011.08.014</t>
-  </si>
-  <si>
-    <t>10.3746/jkfn.2010.39.7.941</t>
-  </si>
-  <si>
-    <t>10.1016/j.scienta.2010.05.012</t>
-  </si>
-  <si>
-    <t>10.3746/jkfn.2010.39.8.1119</t>
-  </si>
-  <si>
-    <t>10.1016/j.phymed.2008.12.002</t>
-  </si>
-  <si>
-    <t>[{'@_fa': 'true', 'affilname': 'Rural Development Administration', 'affiliation-city': 'Jeollabuk-do', 'affiliation-country': 'South Korea'}, {'@_fa': 'true', 'affilname': 'Pusan National University', 'affiliation-city': 'Busan', 'affiliation-country': 'South Korea'}]</t>
+    <t>263-274</t>
+  </si>
+  <si>
+    <t>637-645</t>
+  </si>
+  <si>
+    <t>111-122</t>
+  </si>
+  <si>
+    <t>120-130</t>
+  </si>
+  <si>
+    <t>795-804</t>
+  </si>
+  <si>
+    <t>143-153</t>
+  </si>
+  <si>
+    <t>204-209</t>
+  </si>
+  <si>
+    <t>516-520</t>
+  </si>
+  <si>
+    <t>173-180</t>
+  </si>
+  <si>
+    <t>257-268</t>
+  </si>
+  <si>
+    <t>157-163</t>
+  </si>
+  <si>
+    <t>206-211</t>
+  </si>
+  <si>
+    <t>129-136</t>
+  </si>
+  <si>
+    <t>4-11</t>
+  </si>
+  <si>
+    <t>484-489</t>
+  </si>
+  <si>
+    <t>449-453</t>
+  </si>
+  <si>
+    <t>805-819</t>
+  </si>
+  <si>
+    <t>41-57</t>
+  </si>
+  <si>
+    <t>125-135</t>
+  </si>
+  <si>
+    <t>202-214</t>
+  </si>
+  <si>
+    <t>239-248</t>
+  </si>
+  <si>
+    <t>1 June 2020</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>29 October 2019</t>
+  </si>
+  <si>
+    <t>30 September 2019</t>
+  </si>
+  <si>
+    <t>1 September 2019</t>
+  </si>
+  <si>
+    <t>9 April 2019</t>
+  </si>
+  <si>
+    <t>30 March 2019</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>January 2019</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>1 June 2018</t>
+  </si>
+  <si>
+    <t>1 March 2018</t>
+  </si>
+  <si>
+    <t>1 February 2018</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>31 December 2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>1 December 2017</t>
+  </si>
+  <si>
+    <t>3 October 2017</t>
+  </si>
+  <si>
+    <t>10.1007/s11816-020-00596-8</t>
+  </si>
+  <si>
+    <t>10.3390/foods9020117</t>
+  </si>
+  <si>
+    <t>10.3389/fpls.2019.01383</t>
+  </si>
+  <si>
+    <t>10.14348/molcells.2019.0070</t>
+  </si>
+  <si>
+    <t>10.3390/ijms20174135</t>
+  </si>
+  <si>
+    <t>10.1007/s11816-019-00518-3</t>
+  </si>
+  <si>
+    <t>10.1016/j.jprot.2018.04.015</t>
+  </si>
+  <si>
+    <t>10.1080/14789450.2019.1654860</t>
+  </si>
+  <si>
+    <t>10.1016/j.jgr.2018.09.005</t>
+  </si>
+  <si>
+    <t>10.1016/j.dib.2018.07.063</t>
+  </si>
+  <si>
+    <t>10.1016/j.dib.2018.08.037</t>
+  </si>
+  <si>
+    <t>10.1016/j.plaphy.2018.07.002</t>
+  </si>
+  <si>
+    <t>10.5423/PPJ.OA.01.2018.0008</t>
+  </si>
+  <si>
+    <t>10.1007/s11816-018-0483-x</t>
+  </si>
+  <si>
+    <t>10.1093/jhered/esx071</t>
+  </si>
+  <si>
+    <t>10.1007/s13258-017-0615-7</t>
+  </si>
+  <si>
+    <t>10.1002/pmic.201700366</t>
+  </si>
+  <si>
+    <t>10.2174/1389202918666170228134205</t>
+  </si>
+  <si>
+    <t>10.5010/JPB.2017.44.4.484</t>
+  </si>
+  <si>
+    <t>10.1016/j.dib.2017.09.056</t>
+  </si>
+  <si>
+    <t>10.12972/kjhst.20170084</t>
+  </si>
+  <si>
+    <t>10.1016/j.jprot.2017.05.016</t>
+  </si>
+  <si>
+    <t>10.1016/j.jprot.2017.06.022</t>
+  </si>
+  <si>
+    <t>10.1016/j.jprot.2017.02.012</t>
+  </si>
+  <si>
+    <t>10.1016/j.jprot.2017.03.019</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'Korea Research Institute of Bioscience and Biotechnology', 'affiliation-city': 'Yusong', 'affiliation-country': 'South Korea'}]</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'Incheon National University', 'affiliation-city': 'Incheon', 'affiliation-country': 'South Korea'}]</t>
   </si>
   <si>
     <t>[{'@_fa': 'true', 'affilname': 'Pusan National University', 'affiliation-city': 'Busan', 'affiliation-country': 'South Korea'}]</t>
   </si>
   <si>
-    <t>[{'@_fa': 'true', 'affilname': 'Chungnam National University', 'affiliation-city': 'Daejeon', 'affiliation-country': 'South Korea'}]</t>
-  </si>
-  <si>
-    <t>[{'@_fa': 'true', 'affilname': 'Gyeongsangnam-do Agricultural Research &amp;amp; Extension Services', 'affiliation-city': 'Jinju', 'affiliation-country': 'South Korea'}]</t>
-  </si>
-  <si>
-    <t>[{'@_fa': 'true', 'affilname': 'Korea Basic Science Institute', 'affiliation-city': 'Yusong', 'affiliation-country': 'South Korea'}]</t>
-  </si>
-  <si>
-    <t>[{'@_fa': 'true', 'affilname': 'Andong National University', 'affiliation-city': 'Andong', 'affiliation-country': 'South Korea'}]</t>
-  </si>
-  <si>
-    <t>[{'@_fa': 'true', 'affilname': 'Sunchon National University', 'affiliation-city': 'Suncheon', 'affiliation-country': 'South Korea'}]</t>
-  </si>
-  <si>
-    <t>[{'@_fa': 'true', 'affilname': 'School of Medicine', 'affiliation-city': 'Busan', 'affiliation-country': 'South Korea'}]</t>
+    <t>[{'@_fa': 'true', 'affilname': 'Kyung Hee University', 'affiliation-city': 'Seoul', 'affiliation-country': 'South Korea'}]</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'Jamia Hamdard', 'affiliation-city': 'New Delhi', 'affiliation-country': 'India'}, {'@_fa': 'true', 'affilname': 'Pusan National University', 'affiliation-city': 'Busan', 'affiliation-country': 'South Korea'}]</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'University of Tsukuba', 'affiliation-city': 'Tsukuba', 'affiliation-country': 'Japan'}, {'@_fa': 'true', 'affilname': 'Hoshi University', 'affiliation-city': 'Tokyo', 'affiliation-country': 'Japan'}, {'@_fa': 'true', 'affilname': 'GRADE Academy Private Limited', 'affiliation-city': 'Kathmandu', 'affiliation-country': 'Nepal'}, {'@_fa': 'true', 'affilname': 'Research Laboratory for Biotechnology and Biochemistry (RLABB)', 'affiliation-city': 'Kathmandu', 'affiliation-country': 'Nepal'}]</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'University of Seoul', 'affiliation-city': 'Seoul', 'affiliation-country': 'South Korea'}, {'@_fa': 'true', 'affilname': 'University of Tsukuba', 'affiliation-city': 'Tsukuba', 'affiliation-country': 'Japan'}]</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'Rural Development Administration', 'affiliation-city': 'Jeollabuk-do', 'affiliation-country': 'South Korea'}]</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'Konkuk University', 'affiliation-city': 'Seoul', 'affiliation-country': 'South Korea'}]</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'Universitat Wien', 'affiliation-city': 'Vienna', 'affiliation-country': 'Austria'}]</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'Max Planck Institute for Plant Breeding Research', 'affiliation-city': 'Koln', 'affiliation-country': 'Germany'}]</t>
+  </si>
+  <si>
+    <t>[{'@_fa': 'true', 'affilname': 'Sher-e-Kashmir University of Agricultural Sciences and Technology of Kashmir', 'affiliation-city': 'Srinagar', 'affiliation-country': 'India'}]</t>
   </si>
   <si>
     <t>Journal</t>
@@ -733,67 +967,148 @@
     <t>ar</t>
   </si>
   <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
     <t>Article</t>
   </si>
   <si>
-    <t>21100207006</t>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>11600153402</t>
+  </si>
+  <si>
+    <t>21100898636</t>
+  </si>
+  <si>
+    <t>21100313905</t>
+  </si>
+  <si>
+    <t>12217</t>
+  </si>
+  <si>
+    <t>25879</t>
+  </si>
+  <si>
+    <t>11700154304</t>
+  </si>
+  <si>
+    <t>130051</t>
+  </si>
+  <si>
+    <t>19700188222</t>
+  </si>
+  <si>
+    <t>21100372856</t>
+  </si>
+  <si>
+    <t>16617</t>
+  </si>
+  <si>
+    <t>4300151409</t>
+  </si>
+  <si>
+    <t>18926</t>
+  </si>
+  <si>
+    <t>12000154520</t>
+  </si>
+  <si>
+    <t>14286</t>
+  </si>
+  <si>
+    <t>22075</t>
   </si>
   <si>
     <t>21100298206</t>
   </si>
   <si>
-    <t>33928</t>
-  </si>
-  <si>
     <t>19900192027</t>
   </si>
   <si>
-    <t>25236</t>
-  </si>
-  <si>
-    <t>12121</t>
-  </si>
-  <si>
-    <t>26751</t>
-  </si>
-  <si>
-    <t>4700152644</t>
-  </si>
-  <si>
-    <t>17700156420</t>
-  </si>
-  <si>
-    <t>11600153301</t>
-  </si>
-  <si>
-    <t>17067</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>27264863</t>
-  </si>
-  <si>
-    <t>19195857</t>
-  </si>
-  <si>
-    <t>S0925400516301642</t>
-  </si>
-  <si>
-    <t>S1350449514001492</t>
-  </si>
-  <si>
-    <t>S0304423813004226</t>
-  </si>
-  <si>
-    <t>S0304423811004201</t>
-  </si>
-  <si>
-    <t>S0304423810002244</t>
-  </si>
-  <si>
-    <t>S0944711308002249</t>
+    <t>117</t>
+  </si>
+  <si>
+    <t>1383</t>
+  </si>
+  <si>
+    <t>4135</t>
+  </si>
+  <si>
+    <t>1700366</t>
+  </si>
+  <si>
+    <t>31564075</t>
+  </si>
+  <si>
+    <t>31450622</t>
+  </si>
+  <si>
+    <t>29970347</t>
+  </si>
+  <si>
+    <t>31398080</t>
+  </si>
+  <si>
+    <t>29990770</t>
+  </si>
+  <si>
+    <t>28992201</t>
+  </si>
+  <si>
+    <t>29892922</t>
+  </si>
+  <si>
+    <t>29457974</t>
+  </si>
+  <si>
+    <t>28528990</t>
+  </si>
+  <si>
+    <t>28669816</t>
+  </si>
+  <si>
+    <t>28232208</t>
+  </si>
+  <si>
+    <t>28347863</t>
+  </si>
+  <si>
+    <t>S1874391918301751</t>
+  </si>
+  <si>
+    <t>S1226845318301611</t>
+  </si>
+  <si>
+    <t>S2352340918308424</t>
+  </si>
+  <si>
+    <t>S2352340918308898</t>
+  </si>
+  <si>
+    <t>S0981942818303024</t>
+  </si>
+  <si>
+    <t>S2352340917304870</t>
+  </si>
+  <si>
+    <t>S1874391917301835</t>
+  </si>
+  <si>
+    <t>S1874391917302324</t>
+  </si>
+  <si>
+    <t>S187439191730060X</t>
+  </si>
+  <si>
+    <t>S1874391917301045</t>
   </si>
 </sst>
 </file>
@@ -1168,13 +1483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,1361 +1568,1930 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="O2" s="3">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="Q2" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="T2" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U2" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V2" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W2" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="X2" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" t="s">
-        <v>143</v>
+        <v>168</v>
+      </c>
+      <c r="K3" t="s">
+        <v>198</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="O3" s="3">
-        <v>43373</v>
+        <v>43831</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="Q3" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="T3" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U3" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V3" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W3" t="s">
-        <v>241</v>
+        <v>322</v>
       </c>
       <c r="X3" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="Y3" t="b">
         <v>1</v>
       </c>
+      <c r="Z3" t="s">
+        <v>339</v>
+      </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="L4" t="s">
-        <v>159</v>
-      </c>
-      <c r="M4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="O4" s="3">
-        <v>42809</v>
+        <v>43767</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="Q4" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="R4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="T4" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U4" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="V4" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="W4" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="X4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="Y4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" t="s">
-        <v>145</v>
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>200</v>
       </c>
       <c r="L5" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="M5" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="N5" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="O5" s="3">
-        <v>42736</v>
+        <v>43738</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="Q5" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="T5" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U5" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V5" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W5" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="X5" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y5" t="b">
         <v>0</v>
       </c>
+      <c r="AA5" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="L6" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
-      </c>
-      <c r="N6" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="O6" s="3">
-        <v>42705</v>
+        <v>43709</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="Q6" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="T6" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U6" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V6" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W6" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="X6" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="Y6" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>184</v>
+      </c>
+      <c r="K7" t="s">
+        <v>197</v>
       </c>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>215</v>
+      </c>
+      <c r="M7" t="s">
+        <v>231</v>
       </c>
       <c r="N7" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="O7" s="3">
-        <v>42549</v>
+        <v>43564</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="Q7" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="R7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="T7" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U7" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V7" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W7" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="X7" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y7" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" t="s">
-        <v>254</v>
-      </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="L8" t="s">
-        <v>163</v>
-      </c>
-      <c r="M8" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="N8" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="O8" s="3">
-        <v>42178</v>
+        <v>43554</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="Q8" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="R8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="T8" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U8" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V8" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W8" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="X8" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y8" t="b">
         <v>0</v>
       </c>
+      <c r="AA8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>187</v>
+      </c>
+      <c r="K9" t="s">
+        <v>203</v>
       </c>
       <c r="L9" t="s">
-        <v>164</v>
+        <v>217</v>
+      </c>
+      <c r="M9" t="s">
+        <v>211</v>
       </c>
       <c r="N9" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="O9" s="3">
-        <v>41870</v>
+        <v>43466</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="Q9" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="T9" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U9" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="V9" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="W9" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="X9" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="L10" t="s">
-        <v>165</v>
+        <v>218</v>
+      </c>
+      <c r="M10" t="s">
+        <v>233</v>
       </c>
       <c r="N10" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="O10" s="3">
-        <v>41625</v>
+        <v>43466</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="Q10" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="R10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="S10" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="T10" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U10" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V10" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W10" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="X10" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="Y10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>256</v>
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" t="s">
-        <v>149</v>
+        <v>175</v>
+      </c>
+      <c r="K11" t="s">
+        <v>204</v>
       </c>
       <c r="L11" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="N11" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="O11" s="3">
-        <v>41325</v>
+        <v>43374</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="Q11" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S11" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="T11" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U11" t="s">
-        <v>238</v>
-      </c>
-      <c r="V11" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="W11" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="X11" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="Y11" t="b">
         <v>1</v>
       </c>
+      <c r="AB11" t="s">
+        <v>357</v>
+      </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="L12" t="s">
-        <v>167</v>
-      </c>
-      <c r="M12" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="N12" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="O12" s="3">
-        <v>40898</v>
+        <v>43374</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>267</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>288</v>
       </c>
       <c r="R12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S12" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="T12" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U12" t="s">
-        <v>238</v>
-      </c>
-      <c r="V12" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="W12" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
       <c r="X12" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="Y12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="L13" t="s">
-        <v>167</v>
-      </c>
-      <c r="M13" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="N13" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="O13" s="3">
-        <v>40898</v>
+        <v>43344</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>268</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>289</v>
       </c>
       <c r="R13">
         <v>5</v>
       </c>
       <c r="S13" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="T13" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U13" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V13" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W13" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="X13" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y13" t="b">
         <v>0</v>
       </c>
+      <c r="AA13" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>190</v>
+      </c>
+      <c r="K14" t="s">
+        <v>205</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="M14" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="N14" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="O14" s="3">
-        <v>40847</v>
+        <v>43313</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="Q14" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="R14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="T14" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U14" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V14" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W14" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="X14" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y14" t="b">
         <v>0</v>
       </c>
-      <c r="AA14" t="s">
-        <v>257</v>
-      </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>184</v>
+      </c>
+      <c r="K15" t="s">
+        <v>197</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="M15" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="N15" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="O15" s="3">
-        <v>40513</v>
+        <v>43252</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="Q15" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="R15">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="S15" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="T15" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U15" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="V15" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="W15" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="X15" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>191</v>
+      </c>
+      <c r="K16" t="s">
+        <v>206</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="M16" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="N16" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="O16" s="3">
-        <v>40360</v>
+        <v>43160</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="Q16" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="R16">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="S16" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="T16" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U16" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V16" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W16" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="X16" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="Y16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>258</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>192</v>
+      </c>
+      <c r="K17" t="s">
+        <v>207</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="M17" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="N17" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="O17" s="3">
-        <v>40179</v>
+        <v>43132</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="Q17" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S17" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="T17" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U17" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V17" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W17" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="X17" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y17" t="b">
         <v>0</v>
       </c>
+      <c r="AA17" t="s">
+        <v>349</v>
+      </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>193</v>
+      </c>
+      <c r="K18" t="s">
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="M18" t="s">
-        <v>179</v>
-      </c>
-      <c r="N18" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="O18" s="3">
-        <v>39965</v>
+        <v>43101</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="Q18" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S18" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="T18" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U18" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V18" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W18" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="X18" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y18" t="b">
         <v>0</v>
       </c>
       <c r="Z18" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="AA18" t="s">
-        <v>259</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="O19" s="3">
-        <v>39508</v>
+        <v>43101</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>273</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>295</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="T19" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="U19" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="V19" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="W19" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="X19" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="Y19" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" t="s">
+        <v>234</v>
+      </c>
+      <c r="N20" t="s">
+        <v>251</v>
+      </c>
+      <c r="O20" s="3">
+        <v>43100</v>
+      </c>
+      <c r="P20" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>296</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>311</v>
+      </c>
+      <c r="T20" t="s">
+        <v>315</v>
+      </c>
+      <c r="U20" t="s">
+        <v>316</v>
+      </c>
+      <c r="V20" t="s">
+        <v>319</v>
+      </c>
+      <c r="W20" t="s">
+        <v>336</v>
+      </c>
+      <c r="X20" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>227</v>
+      </c>
+      <c r="N21" t="s">
+        <v>252</v>
+      </c>
+      <c r="O21" s="3">
+        <v>43070</v>
+      </c>
+      <c r="P21" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>297</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>305</v>
+      </c>
+      <c r="T21" t="s">
+        <v>315</v>
+      </c>
+      <c r="U21" t="s">
+        <v>318</v>
+      </c>
+      <c r="W21" t="s">
+        <v>329</v>
+      </c>
+      <c r="X21" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N22" t="s">
+        <v>253</v>
+      </c>
+      <c r="O22" s="3">
+        <v>43070</v>
+      </c>
+      <c r="P22" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>298</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22" t="s">
+        <v>305</v>
+      </c>
+      <c r="T22" t="s">
+        <v>315</v>
+      </c>
+      <c r="U22" t="s">
+        <v>316</v>
+      </c>
+      <c r="V22" t="s">
+        <v>319</v>
+      </c>
+      <c r="W22" t="s">
+        <v>337</v>
+      </c>
+      <c r="X22" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="N23" t="s">
+        <v>254</v>
+      </c>
+      <c r="O23" s="3">
+        <v>43011</v>
+      </c>
+      <c r="P23" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>299</v>
+      </c>
+      <c r="R23">
+        <v>12</v>
+      </c>
+      <c r="S23" t="s">
+        <v>312</v>
+      </c>
+      <c r="T23" t="s">
+        <v>315</v>
+      </c>
+      <c r="U23" t="s">
+        <v>317</v>
+      </c>
+      <c r="V23" t="s">
+        <v>320</v>
+      </c>
+      <c r="W23" t="s">
+        <v>326</v>
+      </c>
+      <c r="X23" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="N24" t="s">
+        <v>255</v>
+      </c>
+      <c r="O24" s="3">
+        <v>43011</v>
+      </c>
+      <c r="P24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>300</v>
+      </c>
+      <c r="R24">
+        <v>22</v>
+      </c>
+      <c r="S24" t="s">
+        <v>305</v>
+      </c>
+      <c r="T24" t="s">
+        <v>315</v>
+      </c>
+      <c r="U24" t="s">
+        <v>316</v>
+      </c>
+      <c r="V24" t="s">
+        <v>319</v>
+      </c>
+      <c r="W24" t="s">
+        <v>326</v>
+      </c>
+      <c r="X24" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="N25" t="s">
+        <v>256</v>
+      </c>
+      <c r="O25" s="3">
+        <v>43011</v>
+      </c>
+      <c r="P25" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>301</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s">
+        <v>313</v>
+      </c>
+      <c r="T25" t="s">
+        <v>315</v>
+      </c>
+      <c r="U25" t="s">
+        <v>316</v>
+      </c>
+      <c r="V25" t="s">
+        <v>319</v>
+      </c>
+      <c r="W25" t="s">
+        <v>326</v>
+      </c>
+      <c r="X25" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" s="3">
+        <v>43011</v>
+      </c>
+      <c r="P26" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>302</v>
+      </c>
+      <c r="R26">
+        <v>8</v>
+      </c>
+      <c r="S26" t="s">
+        <v>314</v>
+      </c>
+      <c r="T26" t="s">
+        <v>315</v>
+      </c>
+      <c r="U26" t="s">
+        <v>317</v>
+      </c>
+      <c r="V26" t="s">
+        <v>320</v>
+      </c>
+      <c r="W26" t="s">
+        <v>326</v>
+      </c>
+      <c r="X26" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -2630,6 +3514,13 @@
     <hyperlink ref="D17" r:id="rId16"/>
     <hyperlink ref="D18" r:id="rId17"/>
     <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
